--- a/test_file/Lsh_Interface.xlsx
+++ b/test_file/Lsh_Interface.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="8670"/>
+    <workbookView windowWidth="19100" windowHeight="8670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Sale_Funnel_Operation" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>http://183.91.155.195:7522/LiVEService/mgtReport/getSaleFunnelOperateReport</t>
   </si>
@@ -109,24 +109,7 @@
     <t>测试销售漏斗运营品牌车系维度全量查询</t>
   </si>
   <si>
-    <t>{
-  "displayType": "6",
-  "startDate": "",
-  "endDate": "",
-  "selectYear": "2018",
-  "selQuarter": "all",
-  "selMonth": "all",
-  "selRegionCode": "all",
-  "selPMACode": "all",
-  "selDealerCode": "all",
-  "selBrand": "all",
-  "selSource": "all",
-  "selSystem": "all",
-  "selBaumuster": "all",
-  "groupId": "LSH",
-  "isSFOR": "1",
-  "fr_username": "Admin"
-}</t>
+    <t>{"displayType":"6","selectYear":"2018","selQuarter":"all","selMonth":"all","startDate":"2018-07-01","endDate":"2018-07-16","selRegionCode":"ER2","selPMACode":"other","selDealerCode":"all","selBrand":"all","selSystem":"all","selBaumuster":"all","groupId":"LSH","fr_username":"Admin","selSource":"all","isSFOR":"1"}</t>
   </si>
   <si>
     <t>http://183.91.155.195:7522/LiVEService/mgtReport/getSalesReportInfo</t>
@@ -149,6 +132,9 @@
 }</t>
   </si>
   <si>
+    <t>101013</t>
+  </si>
+  <si>
     <t>测试销售管理报表地域维度全量查询</t>
   </si>
   <si>
@@ -193,14 +179,88 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -210,14 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,23 +284,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,14 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -277,61 +308,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,19 +338,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,163 +506,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,11 +532,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,17 +577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,15 +591,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,17 +610,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1174,8 +1160,8 @@
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1256,7 +1242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="252" spans="1:5">
+    <row r="6" ht="140" spans="1:5">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1292,8 +1278,8 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1353,25 +1339,25 @@
       <c r="D4" s="7">
         <v>200</v>
       </c>
-      <c r="E4" s="7">
-        <v>0</v>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="168" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7">
         <v>200</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
